--- a/xlsx/美洲_intext.xlsx
+++ b/xlsx/美洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>美洲</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美洲</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -269,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>克丘亞語</t>
+    <t>克丘亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>海地克里奧爾語</t>
+    <t>海地克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓜拉尼語</t>
+    <t>瓜拉尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%A6%AC%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>艾馬拉語</t>
+    <t>艾马拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>聖保羅 (巴西)</t>
+    <t>圣保罗 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5_(%E6%99%BA%E5%88%A9)</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>巴拿馬市</t>
+    <t>巴拿马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF_(%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A)</t>
@@ -407,9 +407,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%AA%9E</t>
   </si>
   <si>
-    <t>西語</t>
+    <t>西语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡語</t>
+    <t>葡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B7%E5%BE%99%E6%96%B0%E5%A4%A7%E9%99%B8%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
-    <t>遷徙新大陸模型</t>
+    <t>迁徙新大陆模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -503,25 +500,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美洲歷史</t>
+    <t>美洲历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>超大陸</t>
+    <t>超大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A1%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>岡瓦那大陸</t>
+    <t>冈瓦那大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%9D%BF%E5%9D%97</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>太平洋板塊</t>
+    <t>太平洋板块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E7%93%A6%E5%B0%94%E5%BE%B7%E6%B3%BD%E7%B1%B3%E5%8B%92</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AC%AC%E6%96%AF%E5%B1%B1%E8%84%89</t>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>喬布斯</t>
+    <t>乔布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
@@ -803,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>牛津大學出版社</t>
+    <t>牛津大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -845,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞非大陸</t>
+    <t>欧亚非大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -875,9 +869,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
-    <t>冈瓦那大陆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BA%9A%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
@@ -887,109 +878,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>潘諾西亞大陸</t>
+    <t>潘诺西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>羅迪尼亞大陸</t>
+    <t>罗迪尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大陸</t>
+    <t>哥伦比亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>凱諾蘭大陸</t>
+    <t>凯诺兰大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>妮娜大陸</t>
+    <t>妮娜大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>烏爾大陸</t>
+    <t>乌尔大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>瓦巴拉大陸</t>
+    <t>瓦巴拉大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>北極大陸</t>
+    <t>北极大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿瓦隆尼亞大陸</t>
+    <t>阿瓦隆尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>波羅的大陸</t>
+    <t>波罗的大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>辛梅利亞大陸</t>
+    <t>辛梅利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>剛果克拉通</t>
+    <t>刚果克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐美大陸</t>
+    <t>欧美大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哈薩克大陸</t>
+    <t>哈萨克大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>勞倫大陸</t>
+    <t>劳伦大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
   </si>
   <si>
-    <t>華北陸塊</t>
+    <t>华北陆块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>西伯利亞大陸</t>
+    <t>西伯利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>東南極克拉通</t>
+    <t>东南极克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱爾蓋朗海台</t>
+    <t>凯尔盖朗海台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
@@ -1031,25 +1022,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>終極盤古大陸</t>
+    <t>终极盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿美西亞大陸</t>
+    <t>阿美西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新盤古大陸</t>
+    <t>新盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>雷姆利亞大陸</t>
+    <t>雷姆利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>未知的南方大陸</t>
+    <t>未知的南方大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
@@ -1091,9 +1082,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
   </si>
   <si>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -1127,13 +1115,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1145,25 +1130,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1175,13 +1160,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1199,31 +1184,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1247,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1259,15 +1244,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1277,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1301,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3507,7 @@
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3554,10 +3533,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3583,10 +3562,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3612,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3641,10 +3620,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3670,10 +3649,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3699,10 +3678,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3728,10 +3707,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3757,10 +3736,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3786,10 +3765,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3815,10 +3794,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3844,10 +3823,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3873,10 +3852,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -3902,10 +3881,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3931,10 +3910,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3960,10 +3939,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3989,10 +3968,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>11</v>
@@ -4018,10 +3997,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4047,10 +4026,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -4076,10 +4055,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4105,10 +4084,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4134,10 +4113,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4163,10 +4142,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4192,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4221,10 +4200,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4250,10 +4229,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4279,10 +4258,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91" t="s">
         <v>159</v>
-      </c>
-      <c r="F91" t="s">
-        <v>160</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4366,10 +4345,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4395,10 +4374,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4424,10 +4403,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4453,10 +4432,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4482,10 +4461,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4511,10 +4490,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4540,10 +4519,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4598,10 +4577,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4627,10 +4606,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4685,10 +4664,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4714,10 +4693,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4743,10 +4722,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4772,10 +4751,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4801,10 +4780,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4830,10 +4809,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -4859,10 +4838,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4888,10 +4867,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4917,10 +4896,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4946,10 +4925,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4975,10 +4954,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5004,10 +4983,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5033,10 +5012,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5062,10 +5041,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5091,10 +5070,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5120,10 +5099,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5149,10 +5128,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5178,10 +5157,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5207,10 +5186,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5236,10 +5215,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5265,10 +5244,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5294,10 +5273,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5323,10 +5302,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5352,10 +5331,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5381,10 +5360,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5410,10 +5389,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5497,10 +5476,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5526,10 +5505,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5555,10 +5534,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5584,10 +5563,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5613,10 +5592,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5642,10 +5621,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5671,10 +5650,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5700,10 +5679,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5729,10 +5708,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5758,10 +5737,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5787,10 +5766,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5816,10 +5795,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5845,10 +5824,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5874,10 +5853,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5903,10 +5882,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5932,10 +5911,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5961,10 +5940,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>146</v>
+      </c>
+      <c r="F149" t="s">
         <v>147</v>
-      </c>
-      <c r="F149" t="s">
-        <v>148</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6048,10 +6027,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6077,10 +6056,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6106,10 +6085,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6135,10 +6114,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6164,10 +6143,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6193,10 +6172,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6222,10 +6201,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6251,10 +6230,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6280,10 +6259,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6309,10 +6288,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6338,10 +6317,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6367,10 +6346,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6396,10 +6375,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6425,10 +6404,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6454,10 +6433,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F166" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6483,10 +6462,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6512,10 +6491,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6541,10 +6520,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6570,10 +6549,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6599,10 +6578,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6628,10 +6607,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6657,10 +6636,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6686,10 +6665,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6715,10 +6694,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6744,10 +6723,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6773,10 +6752,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6802,10 +6781,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6831,10 +6810,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6860,10 +6839,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6889,10 +6868,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6918,10 +6897,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6947,10 +6926,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6976,10 +6955,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7005,10 +6984,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7034,10 +7013,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7063,10 +7042,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7092,10 +7071,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7121,10 +7100,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7150,10 +7129,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7179,10 +7158,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G191" t="n">
         <v>6</v>
@@ -7208,10 +7187,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G192" t="n">
         <v>10</v>
@@ -7237,10 +7216,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7266,10 +7245,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F194" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7295,10 +7274,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>32</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7353,10 +7332,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F197" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7382,10 +7361,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F198" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7411,10 +7390,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7440,10 +7419,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7527,10 +7506,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F203" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7585,10 +7564,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F205" t="s">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7614,10 +7593,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F206" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7643,10 +7622,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F207" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7672,10 +7651,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F208" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7701,10 +7680,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F209" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7730,10 +7709,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F210" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7759,10 +7738,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F211" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7788,10 +7767,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F212" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7817,10 +7796,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F213" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -7846,10 +7825,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F214" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7904,10 +7883,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F216" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7933,10 +7912,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F217" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7962,10 +7941,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F218" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7991,10 +7970,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F219" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8020,10 +7999,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F220" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8049,10 +8028,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F221" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8078,10 +8057,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F222" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8107,10 +8086,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F223" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8136,10 +8115,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F224" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8165,10 +8144,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F225" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8194,10 +8173,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F226" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8223,10 +8202,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F227" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8252,10 +8231,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F228" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8281,10 +8260,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F229" t="s">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8310,10 +8289,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F230" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8339,10 +8318,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F231" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -8368,10 +8347,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F232" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8397,10 +8376,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F233" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8426,10 +8405,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F234" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8455,10 +8434,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F235" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>

--- a/xlsx/美洲_intext.xlsx
+++ b/xlsx/美洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_美洲</t>
+    <t>体育运动_体育运动_体育_美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
